--- a/treasure_hoard_tables.xlsx
+++ b/treasure_hoard_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA1E682-7BAF-43F5-93B5-75AE6954984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3107A0-B96E-4F89-9520-698862C11D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="5500" windowWidth="20820" windowHeight="17410" activeTab="3" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 1-4" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="56">
   <si>
     <t>copper</t>
   </si>
@@ -89,15 +89,6 @@
   </si>
   <si>
     <t>Art Objects</t>
-  </si>
-  <si>
-    <t>magic items</t>
-  </si>
-  <si>
-    <t>art objects</t>
-  </si>
-  <si>
-    <t>gems</t>
   </si>
   <si>
     <t>2d4x25</t>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rolls</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Magic Items</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,15 +623,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -788,7 +790,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -798,7 +800,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -808,7 +810,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -818,7 +820,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -828,7 +830,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -838,7 +840,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -848,7 +850,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -858,7 +860,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -868,7 +870,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -878,7 +880,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -887,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -897,7 +899,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -907,7 +909,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -917,7 +919,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -927,7 +929,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -937,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -947,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -957,7 +959,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -967,7 +969,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -977,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -991,7 +993,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1003,7 +1005,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1015,7 +1017,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1027,7 +1029,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1039,7 +1041,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,7 +1053,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1063,7 +1065,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1075,7 +1077,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1084,10 +1086,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,10 +1098,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -1108,10 +1110,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -1120,10 +1122,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1132,10 +1134,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -1144,10 +1146,10 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -1156,10 +1158,10 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -1168,10 +1170,10 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -1179,11 +1181,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -1191,11 +1193,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -1203,11 +1205,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -1215,11 +1217,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -1227,11 +1229,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -1239,11 +1241,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -1251,11 +1253,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -1263,11 +1265,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -1279,7 +1281,7 @@
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -1291,7 +1293,7 @@
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -1303,7 +1305,7 @@
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -1315,7 +1317,7 @@
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -1327,7 +1329,7 @@
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1336,10 +1338,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -1348,10 +1350,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -1360,10 +1362,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -1372,10 +1374,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -1384,10 +1386,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -1395,11 +1397,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1407,11 +1409,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -1419,11 +1421,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -1431,11 +1433,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -1443,11 +1445,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -1459,7 +1461,7 @@
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1471,7 +1473,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -1483,7 +1485,7 @@
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,10 +1494,10 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -1504,10 +1506,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -1515,11 +1517,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -1527,11 +1529,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -1539,11 +1541,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -1551,11 +1553,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -1563,11 +1565,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -1576,10 +1578,10 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -1588,10 +1590,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -1600,10 +1602,10 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -1612,10 +1614,10 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -1624,10 +1626,10 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -1636,10 +1638,10 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -1648,10 +1650,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -1659,11 +1661,11 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -1671,11 +1673,11 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -1683,11 +1685,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -1695,11 +1697,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -1707,11 +1709,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -1720,10 +1722,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -1732,10 +1734,10 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -1743,11 +1745,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1761,9 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF288366-9F16-436A-8409-D3D811BACB54}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,14 +1776,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1809,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -1817,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1825,7 +1830,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1833,7 +1838,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1841,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1849,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1857,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1865,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1873,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1881,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1889,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1897,7 +1902,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1953,7 +1958,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1961,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1969,7 +1974,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1977,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1985,7 +1990,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1993,7 +1998,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2001,10 +2006,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2012,10 +2017,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2023,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2034,10 +2039,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2045,10 +2050,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -2056,10 +2061,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2067,10 +2072,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2078,10 +2083,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2093,7 +2098,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2105,7 +2110,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2117,7 +2122,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2129,7 +2134,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2138,10 +2143,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2150,10 +2155,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2162,10 +2167,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2174,10 +2179,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2186,10 +2191,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2198,10 +2203,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2210,10 +2215,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2222,10 +2227,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2234,10 +2239,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2245,11 +2250,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2257,11 +2262,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2269,11 +2274,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2281,11 +2286,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2293,11 +2298,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2309,7 +2314,7 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2321,7 +2326,7 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2333,7 +2338,7 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2345,7 +2350,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2357,7 +2362,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2366,10 +2371,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2378,10 +2383,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2390,10 +2395,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2402,10 +2407,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2414,10 +2419,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2426,10 +2431,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2438,10 +2443,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2450,10 +2455,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2462,10 +2467,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2474,10 +2479,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2489,7 +2494,7 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2501,7 +2506,7 @@
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2513,7 +2518,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2522,10 +2527,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2534,10 +2539,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2546,10 +2551,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2558,10 +2563,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2569,11 +2574,11 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2581,11 +2586,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2597,7 +2602,7 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2606,10 +2611,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2618,10 +2623,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2630,10 +2635,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2642,10 +2647,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2654,10 +2659,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2665,11 +2670,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2677,11 +2682,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2689,11 +2694,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -2701,11 +2706,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2717,7 +2722,7 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2729,7 +2734,7 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -2741,7 +2746,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -2750,10 +2755,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2762,10 +2767,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2774,10 +2779,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2789,7 +2794,7 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2801,7 +2806,7 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2810,10 +2815,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -2822,10 +2827,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2833,11 +2838,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2846,10 +2851,10 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2870,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2877,18 +2882,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2924,7 +2931,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
@@ -2935,7 +2942,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
@@ -2946,7 +2953,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
@@ -2957,7 +2964,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
@@ -2968,7 +2975,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
@@ -2979,7 +2986,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
@@ -2990,7 +2997,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
@@ -3000,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3011,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3022,7 +3029,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -3033,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3044,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3056,13 +3063,13 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -3071,13 +3078,13 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -3086,13 +3093,13 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3101,13 +3108,13 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -3116,13 +3123,13 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3131,13 +3138,13 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -3146,13 +3153,13 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -3161,13 +3168,13 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -3175,14 +3182,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -3190,14 +3197,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -3205,14 +3212,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -3220,14 +3227,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -3235,14 +3242,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -3250,14 +3257,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -3266,10 +3273,10 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -3279,10 +3286,10 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -3292,10 +3299,10 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -3305,10 +3312,10 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -3318,10 +3325,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -3331,10 +3338,10 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -3344,10 +3351,10 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -3357,10 +3364,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -3370,10 +3377,10 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -3383,10 +3390,10 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -3396,10 +3403,10 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -3408,11 +3415,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -3421,11 +3428,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -3434,11 +3441,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -3447,11 +3454,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -3460,11 +3467,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -3473,11 +3480,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -3486,11 +3493,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -3499,11 +3506,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -3512,11 +3519,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -3525,11 +3532,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -3539,10 +3546,10 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -3552,10 +3559,10 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -3565,10 +3572,10 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -3578,10 +3585,10 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -3591,10 +3598,10 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -3604,10 +3611,10 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -3617,10 +3624,10 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -3630,10 +3637,10 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -3642,11 +3649,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -3655,11 +3662,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -3668,11 +3675,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -3681,11 +3688,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -3694,11 +3701,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -3707,11 +3714,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E65" s="3"/>
     </row>
@@ -3720,11 +3727,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -3733,11 +3740,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -3747,10 +3754,10 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -3760,10 +3767,10 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -3773,10 +3780,10 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -3786,10 +3793,10 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -3798,11 +3805,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -3811,11 +3818,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -3824,11 +3831,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -3837,11 +3844,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -3851,13 +3858,13 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -3866,13 +3873,13 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -3881,13 +3888,13 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -3896,13 +3903,13 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -3910,14 +3917,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -3925,14 +3932,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -3940,14 +3947,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -3955,14 +3962,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -3971,10 +3978,10 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -3984,10 +3991,10 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E85" s="3"/>
     </row>
@@ -3997,10 +4004,10 @@
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -4010,10 +4017,10 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -4023,10 +4030,10 @@
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -4036,10 +4043,10 @@
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -4048,11 +4055,11 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -4061,11 +4068,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -4074,11 +4081,11 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -4087,11 +4094,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -4101,10 +4108,10 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E94" s="3"/>
     </row>
@@ -4114,10 +4121,10 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E95" s="3"/>
     </row>
@@ -4126,11 +4133,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -4139,11 +4146,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -4152,11 +4159,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -4165,11 +4172,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -4178,11 +4185,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -4191,11 +4198,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E101" s="3"/>
     </row>
@@ -4272,9 +4279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77DC675-1C52-414E-A561-ACCF65A253C9}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4286,7 +4293,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
@@ -4294,10 +4303,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4323,11 +4332,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -4336,11 +4345,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4349,11 +4358,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4363,10 +4372,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4376,10 +4385,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4389,10 +4398,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -4402,10 +4411,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -4415,10 +4424,10 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -4428,10 +4437,10 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -4440,11 +4449,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -4453,11 +4462,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -4466,11 +4475,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -4479,11 +4488,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -4492,11 +4501,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -4505,11 +4514,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -4518,11 +4527,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -4531,11 +4540,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -4544,11 +4553,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -4557,11 +4566,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -4570,11 +4579,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -4584,10 +4593,10 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -4597,10 +4606,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -4610,10 +4619,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -4623,10 +4632,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -4636,10 +4645,10 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -4649,10 +4658,10 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -4662,10 +4671,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -4675,10 +4684,10 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -4688,10 +4697,10 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -4701,10 +4710,10 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -4714,10 +4723,10 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -4727,10 +4736,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -4740,10 +4749,10 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -4753,10 +4762,10 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -4766,10 +4775,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -4779,10 +4788,10 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -4791,11 +4800,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -4804,11 +4813,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -4817,11 +4826,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -4830,11 +4839,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -4843,11 +4852,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -4856,11 +4865,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -4869,11 +4878,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -4882,11 +4891,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -4895,11 +4904,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -4908,11 +4917,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -4921,11 +4930,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -4934,11 +4943,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -4947,11 +4956,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -4960,11 +4969,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -4974,10 +4983,10 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -4987,10 +4996,10 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -5000,10 +5009,10 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -5013,10 +5022,10 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -5026,10 +5035,10 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -5039,10 +5048,10 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -5052,10 +5061,10 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -5065,10 +5074,10 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -5078,10 +5087,10 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -5091,10 +5100,10 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -5104,10 +5113,10 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -5116,11 +5125,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E65" s="3"/>
     </row>
@@ -5129,11 +5138,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -5142,11 +5151,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -5155,11 +5164,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -5168,11 +5177,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -5181,11 +5190,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -5195,10 +5204,10 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -5208,10 +5217,10 @@
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -5220,11 +5229,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -5233,11 +5242,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -5246,11 +5255,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -5260,10 +5269,10 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -5273,10 +5282,10 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="3"/>
     </row>
@@ -5286,10 +5295,10 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E78" s="3"/>
     </row>
@@ -5299,10 +5308,10 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E79" s="3"/>
     </row>
@@ -5311,11 +5320,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E80" s="3"/>
     </row>
@@ -5324,11 +5333,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E81" s="3"/>
     </row>
@@ -5337,11 +5346,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -5350,11 +5359,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -5363,11 +5372,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -5376,11 +5385,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E85" s="3"/>
     </row>
@@ -5389,11 +5398,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -5403,10 +5412,10 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -5416,10 +5425,10 @@
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -5429,10 +5438,10 @@
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -5442,10 +5451,10 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -5455,10 +5464,10 @@
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -5468,13 +5477,13 @@
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -5483,13 +5492,13 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -5498,13 +5507,13 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -5513,13 +5522,13 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5528,13 +5537,13 @@
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5542,11 +5551,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -5555,11 +5564,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -5568,11 +5577,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -5581,11 +5590,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -5594,11 +5603,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E101" s="3"/>
     </row>
@@ -5678,7 +5687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5688,6 +5697,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/treasure_hoard_tables.xlsx
+++ b/treasure_hoard_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3107A0-B96E-4F89-9520-698862C11D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA71226-D52D-4C49-AD11-A2F76CBCBE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
+    <workbookView xWindow="11500" yWindow="340" windowWidth="20820" windowHeight="17410" activeTab="4" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 1-4" sheetId="7" r:id="rId1"/>
@@ -199,13 +199,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Rolls</t>
-  </si>
-  <si>
     <t>Roll</t>
   </si>
   <si>
     <t>Magic Items</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF288366-9F16-436A-8409-D3D811BACB54}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
@@ -1777,7 +1777,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1786,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2869,7 +2869,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2892,10 +2892,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4294,7 +4294,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -5685,9 +5685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC820F-713C-4D55-942E-FF3A35C2A243}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5698,7 +5698,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/treasure_hoard_tables.xlsx
+++ b/treasure_hoard_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA71226-D52D-4C49-AD11-A2F76CBCBE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ECF133-1396-4B74-B5C7-B13342897AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="340" windowWidth="20820" windowHeight="17410" activeTab="4" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
+    <workbookView xWindow="-10170" yWindow="1660" windowWidth="20820" windowHeight="17410" activeTab="1" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 1-4" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="55">
   <si>
     <t>copper</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>1d4xTable I</t>
-  </si>
-  <si>
-    <t>Magic Item</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -608,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14C7B6D-EE43-4FB1-B53F-CF950CC1DE3E}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,11 +617,12 @@
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -633,10 +631,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -644,7 +645,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -652,7 +653,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -668,7 +669,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -684,7 +685,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -694,7 +695,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -704,7 +705,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -714,7 +715,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -724,7 +725,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -734,7 +735,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -744,7 +745,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -754,7 +755,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -764,7 +765,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1761,11 +1762,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF288366-9F16-436A-8409-D3D811BACB54}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,11 +1774,12 @@
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1786,30 +1788,33 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1825,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1873,7 +1878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2870,7 +2875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2883,7 +2888,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -2892,10 +2897,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4281,7 +4286,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4294,7 +4299,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -4303,10 +4308,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4479,7 +4484,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -5685,9 +5690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC820F-713C-4D55-942E-FF3A35C2A243}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5698,7 +5703,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/treasure_hoard_tables.xlsx
+++ b/treasure_hoard_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ECF133-1396-4B74-B5C7-B13342897AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32162BB2-E8D8-46B6-B718-B18C85E3EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10170" yWindow="1660" windowWidth="20820" windowHeight="17410" activeTab="1" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
+    <workbookView xWindow="33670" yWindow="4980" windowWidth="9110" windowHeight="8390" activeTab="4" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 1-4" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="52">
   <si>
     <t>copper</t>
   </si>
@@ -169,16 +169,7 @@
     <t>1d10x2500</t>
   </si>
   <si>
-    <t>ld10x2500</t>
-  </si>
-  <si>
     <t>1d4x7500</t>
-  </si>
-  <si>
-    <t>1d4x7 500</t>
-  </si>
-  <si>
-    <t>ld4x7500</t>
   </si>
   <si>
     <t>1d8x5000</t>
@@ -622,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -631,10 +622,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1764,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF288366-9F16-436A-8409-D3D811BACB54}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -1779,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1788,10 +1779,10 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2888,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -2897,10 +2888,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4285,8 +4276,8 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:D22"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4299,7 +4290,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -4308,10 +4299,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4341,7 +4332,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -4354,7 +4345,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4367,7 +4358,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4380,7 +4371,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -4393,7 +4384,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4406,7 +4397,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -4416,10 +4407,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -4429,10 +4420,10 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -4442,10 +4433,10 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -4454,11 +4445,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -4467,11 +4458,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -4480,11 +4471,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -4702,7 +4693,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>37</v>
@@ -4715,7 +4706,7 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>37</v>
@@ -4728,7 +4719,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>37</v>
@@ -4741,7 +4732,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>37</v>
@@ -4754,7 +4745,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>37</v>
@@ -4767,7 +4758,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>37</v>
@@ -4780,7 +4771,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>37</v>
@@ -4793,7 +4784,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>37</v>
@@ -4805,7 +4796,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
@@ -4818,7 +4809,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
@@ -4831,7 +4822,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
@@ -4844,7 +4835,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
@@ -4857,7 +4848,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
@@ -4870,7 +4861,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
@@ -4883,7 +4874,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
@@ -4896,7 +4887,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5" t="s">
@@ -4913,7 +4904,7 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -4926,7 +4917,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -4939,7 +4930,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -4952,7 +4943,7 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -4965,7 +4956,7 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -4978,7 +4969,7 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -4991,7 +4982,7 @@
         <v>42</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -5004,7 +4995,7 @@
         <v>42</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -5017,7 +5008,7 @@
         <v>42</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -5030,7 +5021,7 @@
         <v>42</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -5043,7 +5034,7 @@
         <v>42</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -5056,7 +5047,7 @@
         <v>42</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -5066,10 +5057,10 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -5079,10 +5070,10 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -5092,10 +5083,10 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -5105,10 +5096,10 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -5118,10 +5109,10 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -5130,11 +5121,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E65" s="3"/>
     </row>
@@ -5143,11 +5134,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -5156,11 +5147,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -5169,11 +5160,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -5182,11 +5173,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -5222,7 +5213,7 @@
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>24</v>
@@ -5234,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -5274,7 +5265,7 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>40</v>
@@ -5287,7 +5278,7 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>40</v>
@@ -5300,7 +5291,7 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>40</v>
@@ -5313,7 +5304,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>40</v>
@@ -5325,7 +5316,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
@@ -5338,7 +5329,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5" t="s">
@@ -5355,7 +5346,7 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -5368,7 +5359,7 @@
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -5381,7 +5372,7 @@
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E84" s="3"/>
     </row>
@@ -5394,7 +5385,7 @@
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E85" s="3"/>
     </row>
@@ -5407,7 +5398,7 @@
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -5420,7 +5411,7 @@
         <v>42</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -5433,7 +5424,7 @@
         <v>42</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -5446,7 +5437,7 @@
         <v>42</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -5459,7 +5450,7 @@
         <v>42</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -5472,7 +5463,7 @@
         <v>42</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -5482,7 +5473,7 @@
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>39</v>
@@ -5497,7 +5488,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>39</v>
@@ -5512,7 +5503,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>39</v>
@@ -5527,7 +5518,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>39</v>
@@ -5542,7 +5533,7 @@
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>39</v>
@@ -5556,11 +5547,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -5569,11 +5560,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -5582,11 +5573,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -5595,11 +5586,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -5608,11 +5599,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E101" s="3"/>
     </row>
@@ -5690,9 +5681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC820F-713C-4D55-942E-FF3A35C2A243}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:F10"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5703,7 +5694,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>

--- a/treasure_hoard_tables.xlsx
+++ b/treasure_hoard_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32162BB2-E8D8-46B6-B718-B18C85E3EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD2A0C5-B0A2-4C34-A99A-6650EF3197F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33670" yWindow="4980" windowWidth="9110" windowHeight="8390" activeTab="4" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
+    <workbookView xWindow="57480" yWindow="16230" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{563FE64E-3F33-4E36-B512-AEE4403A90B4}"/>
   </bookViews>
   <sheets>
     <sheet name="CR 1-4" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="51">
   <si>
     <t>copper</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>1d4xTable I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Roll</t>
@@ -613,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -622,10 +619,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1756,8 +1753,8 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1770,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1779,10 +1776,10 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2865,8 +2862,8 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2879,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -2888,10 +2885,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4275,9 +4272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77DC675-1C52-414E-A561-ACCF65A253C9}">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4290,7 +4287,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>15</v>
@@ -4299,10 +4296,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4475,7 +4472,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -5681,9 +5678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FC820F-713C-4D55-942E-FF3A35C2A243}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5694,7 +5691,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
